--- a/Teleologies/Informal Modeling/ModelingSheet.xlsx
+++ b/Teleologies/Informal Modeling/ModelingSheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="41">
   <si>
     <t>Common Kernal Concepts</t>
   </si>
@@ -63,6 +63,9 @@
     <t>location</t>
   </si>
   <si>
+    <t>has location</t>
+  </si>
+  <si>
     <t>latitude, longitude</t>
   </si>
   <si>
@@ -81,6 +84,9 @@
     <t>address</t>
   </si>
   <si>
+    <t>has address</t>
+  </si>
+  <si>
     <t>province, city, CAP, street, street number, commune</t>
   </si>
   <si>
@@ -129,7 +135,7 @@
     <t>company</t>
   </si>
   <si>
-    <t>owned by</t>
+    <t>has company, has attraction</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -139,7 +145,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -155,10 +161,6 @@
     <font>
       <sz val="10.0"/>
       <color theme="1"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10.0"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -331,7 +333,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="29">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -352,20 +354,16 @@
     </xf>
     <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="5" fillId="6" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="5" fillId="6" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="6" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="9" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -373,19 +371,18 @@
     </xf>
     <xf borderId="10" fillId="0" fontId="0" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="5" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
@@ -616,7 +613,7 @@
     <col customWidth="1" min="5" max="5" width="15.29"/>
     <col customWidth="1" min="6" max="6" width="16.0"/>
     <col customWidth="1" min="11" max="11" width="18.57"/>
-    <col customWidth="1" min="12" max="12" width="22.57"/>
+    <col customWidth="1" min="12" max="12" width="24.86"/>
     <col customWidth="1" min="13" max="13" width="44.71"/>
   </cols>
   <sheetData>
@@ -701,15 +698,15 @@
       <c r="K6" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="L6" s="14"/>
+      <c r="L6" s="12"/>
       <c r="M6" s="12"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="14" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="12"/>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="15" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="12"/>
@@ -722,14 +719,16 @@
       <c r="K7" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="L7" s="12"/>
-      <c r="M7" s="17" t="s">
+      <c r="L7" s="15" t="s">
         <v>15</v>
       </c>
+      <c r="M7" s="16" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="15" t="s">
-        <v>16</v>
+      <c r="A8" s="14" t="s">
+        <v>17</v>
       </c>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
@@ -739,22 +738,22 @@
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
       <c r="I8" s="12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J8" s="13"/>
       <c r="K8" s="12"/>
       <c r="L8" s="12"/>
       <c r="M8" s="12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="19" t="s">
+      <c r="A9" s="14" t="s">
         <v>19</v>
+      </c>
+      <c r="B9" s="15"/>
+      <c r="C9" s="17" t="s">
+        <v>20</v>
       </c>
       <c r="D9" s="12"/>
       <c r="E9" s="12"/>
@@ -763,17 +762,19 @@
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
       <c r="J9" s="13"/>
-      <c r="K9" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="L9" s="12"/>
-      <c r="M9" s="17" t="s">
+      <c r="K9" s="15" t="s">
         <v>21</v>
       </c>
+      <c r="L9" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="M9" s="16" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="15" t="s">
-        <v>22</v>
+      <c r="A10" s="14" t="s">
+        <v>24</v>
       </c>
       <c r="B10" s="12"/>
       <c r="C10" s="12"/>
@@ -789,8 +790,8 @@
       <c r="M10" s="12"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="15" t="s">
-        <v>23</v>
+      <c r="A11" s="14" t="s">
+        <v>25</v>
       </c>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
@@ -801,17 +802,17 @@
       <c r="H11" s="12"/>
       <c r="I11" s="12"/>
       <c r="J11" s="13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K11" s="12"/>
       <c r="L11" s="12"/>
       <c r="M11" s="12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="15" t="s">
-        <v>25</v>
+      <c r="A12" s="14" t="s">
+        <v>27</v>
       </c>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
@@ -821,39 +822,39 @@
       <c r="G12" s="12"/>
       <c r="H12" s="12"/>
       <c r="I12" s="12" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J12" s="13"/>
       <c r="K12" s="12"/>
       <c r="L12" s="12"/>
       <c r="M12" s="12" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="15" t="s">
-        <v>27</v>
+      <c r="A13" s="14" t="s">
+        <v>29</v>
       </c>
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
       <c r="D13" s="12"/>
-      <c r="E13" s="16"/>
+      <c r="E13" s="15"/>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
       <c r="H13" s="12"/>
       <c r="I13" s="12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J13" s="13"/>
-      <c r="K13" s="14"/>
+      <c r="K13" s="12"/>
       <c r="L13" s="12"/>
       <c r="M13" s="12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="15" t="s">
-        <v>29</v>
+      <c r="A14" s="14" t="s">
+        <v>31</v>
       </c>
       <c r="B14" s="12"/>
       <c r="C14" s="12"/>
@@ -863,18 +864,18 @@
       <c r="G14" s="12"/>
       <c r="H14" s="12"/>
       <c r="I14" s="12" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J14" s="13"/>
       <c r="K14" s="12"/>
       <c r="L14" s="12"/>
       <c r="M14" s="12" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="20" t="s">
-        <v>31</v>
+      <c r="A15" s="18" t="s">
+        <v>33</v>
       </c>
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
@@ -884,22 +885,22 @@
       <c r="G15" s="12"/>
       <c r="H15" s="12"/>
       <c r="I15" s="12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J15" s="13"/>
       <c r="K15" s="12"/>
       <c r="L15" s="12"/>
       <c r="M15" s="12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="22"/>
+      <c r="A16" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="20"/>
       <c r="C16" s="12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D16" s="12"/>
       <c r="E16" s="12"/>
@@ -911,170 +912,170 @@
       <c r="K16" s="12"/>
       <c r="L16" s="12"/>
       <c r="M16" s="12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="B17" s="22"/>
+      <c r="A17" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="20"/>
       <c r="C17" s="12"/>
       <c r="D17" s="12"/>
-      <c r="E17" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="F17" s="14"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="L17" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="M17" s="26"/>
+      <c r="E17" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="F17" s="12"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="L17" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="M17" s="22"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="27"/>
-      <c r="B18" s="28"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
+      <c r="A18" s="24"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="B19" s="29"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
+      <c r="A19" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="26"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="27"/>
-      <c r="B20" s="28"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
+      <c r="A20" s="24"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="27"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
+      <c r="A21" s="24"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="27"/>
-      <c r="B22" s="28"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="30"/>
+      <c r="A22" s="24"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="27"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="27"/>
-      <c r="B23" s="28"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
+      <c r="A23" s="24"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="27"/>
-      <c r="B24" s="28"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="30"/>
+      <c r="A24" s="24"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="30"/>
-      <c r="B25" s="28"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="30"/>
+      <c r="A25" s="27"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="27"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="30"/>
-      <c r="B26" s="28"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="30"/>
+      <c r="A26" s="27"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="27"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="30"/>
-      <c r="B27" s="28"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="30"/>
+      <c r="A27" s="27"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="27"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="30"/>
-      <c r="B28" s="29"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="30"/>
+      <c r="A28" s="27"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="30"/>
-      <c r="B29" s="30"/>
-      <c r="C29" s="30"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="30"/>
+      <c r="A29" s="27"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="30"/>
-      <c r="F30" s="30"/>
+      <c r="A30" s="27"/>
+      <c r="F30" s="27"/>
     </row>
     <row r="31" ht="15.75" customHeight="1"/>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="30"/>
-      <c r="B32" s="30"/>
-      <c r="C32" s="30"/>
-      <c r="D32" s="30"/>
-      <c r="E32" s="30"/>
-      <c r="F32" s="30"/>
+      <c r="A32" s="27"/>
+      <c r="B32" s="27"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="30"/>
-      <c r="B33" s="30"/>
-      <c r="C33" s="30"/>
-      <c r="D33" s="30"/>
-      <c r="E33" s="30"/>
-      <c r="F33" s="30"/>
+      <c r="A33" s="27"/>
+      <c r="B33" s="27"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="27"/>
     </row>
     <row r="34" ht="15.75" customHeight="1"/>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="30"/>
-      <c r="B35" s="30"/>
-      <c r="C35" s="30"/>
-      <c r="D35" s="30"/>
-      <c r="E35" s="30"/>
-      <c r="F35" s="30"/>
+      <c r="A35" s="27"/>
+      <c r="B35" s="27"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="27"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="30"/>
+      <c r="A36" s="27"/>
     </row>
     <row r="37" ht="15.75" customHeight="1"/>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="30"/>
-      <c r="B38" s="30"/>
-      <c r="C38" s="30"/>
-      <c r="D38" s="30"/>
-      <c r="E38" s="30"/>
+      <c r="A38" s="27"/>
+      <c r="B38" s="27"/>
+      <c r="C38" s="27"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="27"/>
     </row>
     <row r="39" ht="15.75" customHeight="1"/>
     <row r="40" ht="15.75" customHeight="1"/>

--- a/Teleologies/Informal Modeling/ModelingSheet.xlsx
+++ b/Teleologies/Informal Modeling/ModelingSheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="42">
   <si>
     <t>Common Kernal Concepts</t>
   </si>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t>List of all naturalistic attractions in Trentino</t>
+  </si>
+  <si>
+    <t>name</t>
   </si>
   <si>
     <t>attraction</t>
@@ -353,12 +356,12 @@
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="5" fillId="6" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
@@ -685,29 +688,33 @@
         <v>10</v>
       </c>
       <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
+      <c r="C6" s="13" t="s">
+        <v>11</v>
+      </c>
       <c r="D6" s="12"/>
       <c r="E6" s="12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
       <c r="H6" s="12"/>
       <c r="I6" s="12"/>
-      <c r="J6" s="13"/>
+      <c r="J6" s="14"/>
       <c r="K6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" s="12"/>
+      <c r="M6" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="14" t="s">
-        <v>12</v>
+      <c r="A7" s="15" t="s">
+        <v>13</v>
       </c>
       <c r="B7" s="12"/>
-      <c r="C7" s="15" t="s">
-        <v>13</v>
+      <c r="C7" s="13" t="s">
+        <v>14</v>
       </c>
       <c r="D7" s="12"/>
       <c r="E7" s="12"/>
@@ -715,20 +722,20 @@
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
       <c r="I7" s="12"/>
-      <c r="J7" s="13"/>
+      <c r="J7" s="14"/>
       <c r="K7" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="L7" s="15" t="s">
         <v>15</v>
       </c>
+      <c r="L7" s="13" t="s">
+        <v>16</v>
+      </c>
       <c r="M7" s="16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="14" t="s">
-        <v>17</v>
+      <c r="A8" s="15" t="s">
+        <v>18</v>
       </c>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
@@ -738,22 +745,22 @@
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
       <c r="I8" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="J8" s="13"/>
+        <v>19</v>
+      </c>
+      <c r="J8" s="14"/>
       <c r="K8" s="12"/>
       <c r="L8" s="12"/>
       <c r="M8" s="12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="15"/>
+      <c r="A9" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="13"/>
       <c r="C9" s="17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D9" s="12"/>
       <c r="E9" s="12"/>
@@ -761,20 +768,20 @@
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="L9" s="15" t="s">
+      <c r="J9" s="14"/>
+      <c r="K9" s="13" t="s">
         <v>22</v>
       </c>
+      <c r="L9" s="13" t="s">
+        <v>23</v>
+      </c>
       <c r="M9" s="16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="14" t="s">
-        <v>24</v>
+      <c r="A10" s="15" t="s">
+        <v>25</v>
       </c>
       <c r="B10" s="12"/>
       <c r="C10" s="12"/>
@@ -784,14 +791,14 @@
       <c r="G10" s="12"/>
       <c r="H10" s="12"/>
       <c r="I10" s="12"/>
-      <c r="J10" s="13"/>
+      <c r="J10" s="14"/>
       <c r="K10" s="12"/>
       <c r="L10" s="12"/>
       <c r="M10" s="12"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="14" t="s">
-        <v>25</v>
+      <c r="A11" s="15" t="s">
+        <v>26</v>
       </c>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
@@ -801,18 +808,18 @@
       <c r="G11" s="12"/>
       <c r="H11" s="12"/>
       <c r="I11" s="12"/>
-      <c r="J11" s="13" t="s">
-        <v>26</v>
+      <c r="J11" s="14" t="s">
+        <v>27</v>
       </c>
       <c r="K11" s="12"/>
       <c r="L11" s="12"/>
       <c r="M11" s="12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="14" t="s">
-        <v>27</v>
+      <c r="A12" s="15" t="s">
+        <v>28</v>
       </c>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
@@ -822,39 +829,39 @@
       <c r="G12" s="12"/>
       <c r="H12" s="12"/>
       <c r="I12" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="J12" s="13"/>
+        <v>29</v>
+      </c>
+      <c r="J12" s="14"/>
       <c r="K12" s="12"/>
       <c r="L12" s="12"/>
       <c r="M12" s="12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="14" t="s">
-        <v>29</v>
+      <c r="A13" s="15" t="s">
+        <v>30</v>
       </c>
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
       <c r="D13" s="12"/>
-      <c r="E13" s="15"/>
+      <c r="E13" s="13"/>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
       <c r="H13" s="12"/>
       <c r="I13" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="J13" s="13"/>
+        <v>31</v>
+      </c>
+      <c r="J13" s="14"/>
       <c r="K13" s="12"/>
       <c r="L13" s="12"/>
       <c r="M13" s="12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="14" t="s">
-        <v>31</v>
+      <c r="A14" s="15" t="s">
+        <v>32</v>
       </c>
       <c r="B14" s="12"/>
       <c r="C14" s="12"/>
@@ -864,18 +871,18 @@
       <c r="G14" s="12"/>
       <c r="H14" s="12"/>
       <c r="I14" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="J14" s="13"/>
+        <v>33</v>
+      </c>
+      <c r="J14" s="14"/>
       <c r="K14" s="12"/>
       <c r="L14" s="12"/>
       <c r="M14" s="12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
@@ -885,22 +892,22 @@
       <c r="G15" s="12"/>
       <c r="H15" s="12"/>
       <c r="I15" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="J15" s="13"/>
+        <v>35</v>
+      </c>
+      <c r="J15" s="14"/>
       <c r="K15" s="12"/>
       <c r="L15" s="12"/>
       <c r="M15" s="12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B16" s="20"/>
       <c r="C16" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D16" s="12"/>
       <c r="E16" s="12"/>
@@ -908,22 +915,22 @@
       <c r="G16" s="12"/>
       <c r="H16" s="12"/>
       <c r="I16" s="12"/>
-      <c r="J16" s="13"/>
+      <c r="J16" s="14"/>
       <c r="K16" s="12"/>
       <c r="L16" s="12"/>
       <c r="M16" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="21" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B17" s="20"/>
       <c r="C17" s="12"/>
       <c r="D17" s="12"/>
-      <c r="E17" s="15" t="s">
-        <v>38</v>
+      <c r="E17" s="13" t="s">
+        <v>39</v>
       </c>
       <c r="F17" s="12"/>
       <c r="G17" s="22"/>
@@ -931,10 +938,10 @@
       <c r="I17" s="22"/>
       <c r="J17" s="22"/>
       <c r="K17" s="23" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L17" s="23" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M17" s="22"/>
     </row>
@@ -948,7 +955,7 @@
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="27" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B19" s="26"/>
       <c r="C19" s="25"/>

--- a/Teleologies/Informal Modeling/ModelingSheet.xlsx
+++ b/Teleologies/Informal Modeling/ModelingSheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="40">
   <si>
     <t>Common Kernal Concepts</t>
   </si>
@@ -51,18 +51,15 @@
     <t>List of all naturalistic attractions in Trentino</t>
   </si>
   <si>
+    <t>attraction</t>
+  </si>
+  <si>
     <t>name</t>
   </si>
   <si>
-    <t>attraction</t>
-  </si>
-  <si>
     <t>Which are the attractions near my house?</t>
   </si>
   <si>
-    <t>location, latitude, longitude</t>
-  </si>
-  <si>
     <t>location</t>
   </si>
   <si>
@@ -79,9 +76,6 @@
   </si>
   <si>
     <t>Where is the specific attraction x?</t>
-  </si>
-  <si>
-    <t>address, province, CAP, city, street, street number, commune</t>
   </si>
   <si>
     <t>address</t>
@@ -148,7 +142,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -164,6 +158,10 @@
     <font>
       <sz val="10.0"/>
       <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -336,7 +334,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="33">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -360,32 +358,38 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="5" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="6" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="5" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="5" fillId="6" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="6" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="9" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="10" fillId="0" fontId="0" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="7" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
@@ -688,12 +692,10 @@
         <v>10</v>
       </c>
       <c r="B6" s="12"/>
-      <c r="C6" s="13" t="s">
-        <v>11</v>
-      </c>
+      <c r="C6" s="13"/>
       <c r="D6" s="12"/>
       <c r="E6" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
@@ -701,21 +703,21 @@
       <c r="I6" s="12"/>
       <c r="J6" s="14"/>
       <c r="K6" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="L6" s="15"/>
+      <c r="M6" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="L6" s="12"/>
-      <c r="M6" s="13" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="13" t="s">
+      <c r="B7" s="17" t="s">
         <v>14</v>
       </c>
+      <c r="C7" s="13"/>
       <c r="D7" s="12"/>
       <c r="E7" s="12"/>
       <c r="F7" s="12"/>
@@ -724,18 +726,18 @@
       <c r="I7" s="12"/>
       <c r="J7" s="14"/>
       <c r="K7" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="L7" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="L7" s="13" t="s">
+      <c r="M7" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="M7" s="16" t="s">
+    </row>
+    <row r="8" ht="15.75" customHeight="1">
+      <c r="A8" s="16" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="15" t="s">
-        <v>18</v>
       </c>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
@@ -744,24 +746,22 @@
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
-      <c r="I8" s="12" t="s">
-        <v>19</v>
-      </c>
+      <c r="I8" s="12"/>
       <c r="J8" s="14"/>
       <c r="K8" s="12"/>
       <c r="L8" s="12"/>
       <c r="M8" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" ht="15.75" customHeight="1">
+      <c r="A9" s="16" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="15" t="s">
+      <c r="B9" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="17" t="s">
-        <v>21</v>
-      </c>
+      <c r="C9" s="19"/>
       <c r="D9" s="12"/>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
@@ -769,19 +769,19 @@
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
       <c r="J9" s="14"/>
-      <c r="K9" s="13" t="s">
+      <c r="K9" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="L9" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="M9" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="L9" s="13" t="s">
+    </row>
+    <row r="10" ht="15.75" customHeight="1">
+      <c r="A10" s="16" t="s">
         <v>23</v>
-      </c>
-      <c r="M9" s="16" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="15" t="s">
-        <v>25</v>
       </c>
       <c r="B10" s="12"/>
       <c r="C10" s="12"/>
@@ -797,8 +797,8 @@
       <c r="M10" s="12"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="15" t="s">
-        <v>26</v>
+      <c r="A11" s="16" t="s">
+        <v>24</v>
       </c>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
@@ -808,18 +808,16 @@
       <c r="G11" s="12"/>
       <c r="H11" s="12"/>
       <c r="I11" s="12"/>
-      <c r="J11" s="14" t="s">
-        <v>27</v>
-      </c>
+      <c r="J11" s="20"/>
       <c r="K11" s="12"/>
       <c r="L11" s="12"/>
       <c r="M11" s="12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="15" t="s">
-        <v>28</v>
+      <c r="A12" s="16" t="s">
+        <v>26</v>
       </c>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
@@ -828,19 +826,17 @@
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
       <c r="H12" s="12"/>
-      <c r="I12" s="12" t="s">
-        <v>29</v>
-      </c>
+      <c r="I12" s="12"/>
       <c r="J12" s="14"/>
       <c r="K12" s="12"/>
       <c r="L12" s="12"/>
       <c r="M12" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="15" t="s">
-        <v>30</v>
+      <c r="A13" s="16" t="s">
+        <v>28</v>
       </c>
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
@@ -849,19 +845,17 @@
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
       <c r="H13" s="12"/>
-      <c r="I13" s="12" t="s">
-        <v>31</v>
-      </c>
+      <c r="I13" s="12"/>
       <c r="J13" s="14"/>
-      <c r="K13" s="12"/>
+      <c r="K13" s="15"/>
       <c r="L13" s="12"/>
       <c r="M13" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="15" t="s">
-        <v>32</v>
+      <c r="A14" s="16" t="s">
+        <v>30</v>
       </c>
       <c r="B14" s="12"/>
       <c r="C14" s="12"/>
@@ -870,19 +864,17 @@
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
       <c r="H14" s="12"/>
-      <c r="I14" s="12" t="s">
-        <v>33</v>
-      </c>
+      <c r="I14" s="12"/>
       <c r="J14" s="14"/>
       <c r="K14" s="12"/>
       <c r="L14" s="12"/>
       <c r="M14" s="12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="18" t="s">
-        <v>34</v>
+      <c r="A15" s="21" t="s">
+        <v>32</v>
       </c>
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
@@ -891,24 +883,20 @@
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
       <c r="H15" s="12"/>
-      <c r="I15" s="12" t="s">
-        <v>35</v>
-      </c>
+      <c r="I15" s="12"/>
       <c r="J15" s="14"/>
       <c r="K15" s="12"/>
       <c r="L15" s="12"/>
       <c r="M15" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16" s="20"/>
-      <c r="C16" s="12" t="s">
-        <v>37</v>
-      </c>
+      <c r="A16" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="23"/>
+      <c r="C16" s="12"/>
       <c r="D16" s="12"/>
       <c r="E16" s="12"/>
       <c r="F16" s="12"/>
@@ -919,170 +907,170 @@
       <c r="K16" s="12"/>
       <c r="L16" s="12"/>
       <c r="M16" s="12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="B17" s="20"/>
+      <c r="A17" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="23"/>
       <c r="C17" s="12"/>
       <c r="D17" s="12"/>
-      <c r="E17" s="13" t="s">
+      <c r="E17" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" s="15"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="L17" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="M17" s="27"/>
+    </row>
+    <row r="18" ht="15.75" customHeight="1">
+      <c r="A18" s="28"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+    </row>
+    <row r="19" ht="15.75" customHeight="1">
+      <c r="A19" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="F17" s="12"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="L17" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="M17" s="22"/>
-    </row>
-    <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="24"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-    </row>
-    <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="B19" s="26"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="24"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
+      <c r="A20" s="28"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="24"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
+      <c r="A21" s="28"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="24"/>
-      <c r="B22" s="25"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="27"/>
+      <c r="A22" s="28"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="31"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="24"/>
-      <c r="B23" s="25"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27"/>
+      <c r="A23" s="28"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="24"/>
-      <c r="B24" s="25"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="27"/>
+      <c r="A24" s="28"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="27"/>
-      <c r="B25" s="25"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="27"/>
+      <c r="A25" s="31"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="31"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="27"/>
-      <c r="B26" s="25"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="27"/>
+      <c r="A26" s="31"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="31"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="27"/>
-      <c r="B27" s="25"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="27"/>
+      <c r="A27" s="31"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="31"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="27"/>
-      <c r="B28" s="26"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="27"/>
+      <c r="A28" s="31"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="27"/>
-      <c r="B29" s="27"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="27"/>
+      <c r="A29" s="31"/>
+      <c r="B29" s="31"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="27"/>
-      <c r="F30" s="27"/>
+      <c r="A30" s="31"/>
+      <c r="F30" s="31"/>
     </row>
     <row r="31" ht="15.75" customHeight="1"/>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="27"/>
-      <c r="B32" s="27"/>
-      <c r="C32" s="27"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="27"/>
+      <c r="A32" s="31"/>
+      <c r="B32" s="31"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="31"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="31"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="27"/>
-      <c r="B33" s="27"/>
-      <c r="C33" s="27"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="27"/>
+      <c r="A33" s="31"/>
+      <c r="B33" s="31"/>
+      <c r="C33" s="31"/>
+      <c r="D33" s="31"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="31"/>
     </row>
     <row r="34" ht="15.75" customHeight="1"/>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="27"/>
-      <c r="B35" s="27"/>
-      <c r="C35" s="27"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="27"/>
-      <c r="F35" s="27"/>
+      <c r="A35" s="31"/>
+      <c r="B35" s="31"/>
+      <c r="C35" s="31"/>
+      <c r="D35" s="31"/>
+      <c r="E35" s="31"/>
+      <c r="F35" s="31"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="27"/>
+      <c r="A36" s="31"/>
     </row>
     <row r="37" ht="15.75" customHeight="1"/>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="27"/>
-      <c r="B38" s="27"/>
-      <c r="C38" s="27"/>
-      <c r="D38" s="27"/>
-      <c r="E38" s="27"/>
+      <c r="A38" s="31"/>
+      <c r="B38" s="31"/>
+      <c r="C38" s="31"/>
+      <c r="D38" s="31"/>
+      <c r="E38" s="31"/>
     </row>
     <row r="39" ht="15.75" customHeight="1"/>
     <row r="40" ht="15.75" customHeight="1"/>
